--- a/parts.xlsx
+++ b/parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GES2SF\everything\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GES2SF\everything\Diploma\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE8B5E-AD65-4A71-91A7-D5D1FD25555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985329A-3E3E-4C36-A2E5-72C4F50CFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="810" windowWidth="25820" windowHeight="13900" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
+    <workbookView xWindow="-110" yWindow="14660" windowWidth="19420" windowHeight="11500" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Компоненти</t>
   </si>
@@ -72,13 +72,19 @@
   </si>
   <si>
     <t>Arduino Nano 33 IoT(no headers)</t>
+  </si>
+  <si>
+    <t>OSTB8BS4C2B LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0x5.0x1.5mm, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +106,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -132,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,7 +462,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,6 +524,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -526,8 +546,9 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D527A8E8-0B49-47B8-A74C-D767962EC92C}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{621B25B8-ADE8-4780-A093-F7E8181AF0EB}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/parts.xlsx
+++ b/parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GES2SF\everything\Diploma\Diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\source\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985329A-3E3E-4C36-A2E5-72C4F50CFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59411-22CB-406A-9198-B780F1F78915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="14660" windowWidth="19420" windowHeight="11500" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Компоненти</t>
   </si>
@@ -53,12 +51,6 @@
     <t>Магазин</t>
   </si>
   <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>Comet Electronics</t>
-  </si>
-  <si>
     <t>MCP6291T-E/OT</t>
   </si>
   <si>
@@ -71,13 +63,35 @@
     <t>Operational Amplifier, Single, 1 Channels, 10 MHz, 7 V/µs, 2.4V to 6V, SOT-23, 5 Pins</t>
   </si>
   <si>
-    <t>Arduino Nano 33 IoT(no headers)</t>
-  </si>
-  <si>
     <t>OSTB8BS4C2B LED</t>
   </si>
   <si>
     <t xml:space="preserve">5.0x5.0x1.5mm, </t>
+  </si>
+  <si>
+    <t>Raspberry Pi Pico</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Pico 2 is a low-cost, high-performance microcontroller board with flexible digital interfaces. Key features include:
+RP2350 
+Dual Cortex-M33 up to 150MHz
+520KB of SRAM, 4MB flash memory
+USB 1.1 with device and host support
+Low-power sleep and dormant modes
+Drag-and-drop programming using mass storage over USB
+26× GPIO pins, 3 ADC
+2× SPI, 2× I2C, 2× UART, 3× 12-bit 500ksps Analogue to Digital Converter (ADC), 24× controllable PWM channels
+2× Timer with 4 alarms, 1× AON Timer
+Temperature sensor</t>
+  </si>
+  <si>
+    <t>SMD Resistors/Capacitors 1206</t>
+  </si>
+  <si>
+    <t>2n3904 Transistor</t>
+  </si>
+  <si>
+    <t>Shcottkey Diods</t>
   </si>
 </sst>
 </file>
@@ -134,16 +148,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,96 +483,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28589AB2-C83C-4EE1-B9C0-44ACA9F244B4}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="2" max="2" width="33.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.06640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:6" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{089A42FD-8798-4842-B148-B1A212D80247}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D527A8E8-0B49-47B8-A74C-D767962EC92C}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{621B25B8-ADE8-4780-A093-F7E8181AF0EB}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{089A42FD-8798-4842-B148-B1A212D80247}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D527A8E8-0B49-47B8-A74C-D767962EC92C}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\source\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59411-22CB-406A-9198-B780F1F78915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC806E7-65D2-4465-AEFC-28BAC215A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Компоненти</t>
   </si>
@@ -48,57 +48,311 @@
     <t>MCP6L91T-E/OT</t>
   </si>
   <si>
-    <t>Магазин</t>
-  </si>
-  <si>
     <t>MCP6291T-E/OT</t>
   </si>
   <si>
     <t>Operational Amplifier, Single, 1 Channels, 10 MHz, 7 V/µs, 2.4V to 5.5V, SOT-23, 5 Pins</t>
   </si>
   <si>
-    <t>Operational Amplifier, 1 OA,3mV,1pA,2.4-6V,1mA,10MHz</t>
-  </si>
-  <si>
     <t>Operational Amplifier, Single, 1 Channels, 10 MHz, 7 V/µs, 2.4V to 6V, SOT-23, 5 Pins</t>
   </si>
   <si>
     <t>OSTB8BS4C2B LED</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0x5.0x1.5mm, </t>
-  </si>
-  <si>
     <t>Raspberry Pi Pico</t>
   </si>
   <si>
-    <t>Raspberry Pi Pico 2 is a low-cost, high-performance microcontroller board with flexible digital interfaces. Key features include:
-RP2350 
-Dual Cortex-M33 up to 150MHz
-520KB of SRAM, 4MB flash memory
-USB 1.1 with device and host support
-Low-power sleep and dormant modes
-Drag-and-drop programming using mass storage over USB
-26× GPIO pins, 3 ADC
-2× SPI, 2× I2C, 2× UART, 3× 12-bit 500ksps Analogue to Digital Converter (ADC), 24× controllable PWM channels
-2× Timer with 4 alarms, 1× AON Timer
-Temperature sensor</t>
-  </si>
-  <si>
     <t>SMD Resistors/Capacitors 1206</t>
   </si>
   <si>
     <t>2n3904 Transistor</t>
   </si>
   <si>
-    <t>Shcottkey Diods</t>
+    <t>Снимка</t>
+  </si>
+  <si>
+    <t>Maximum ratings: 40V (VCEO), 200mA (IC), 350mW power dissipation</t>
+  </si>
+  <si>
+    <t>High frequency: 300 MHz gain-bandwidth product</t>
+  </si>
+  <si>
+    <t>Amplification: hFE range of 100–300</t>
+  </si>
+  <si>
+    <t>Low saturation voltages: VCE(sat) ≤ 0.3V at 50mA, VBE(sat) ≤ 0.95V</t>
+  </si>
+  <si>
+    <t>Fast switching times: 35ns rise and delay, 200ns storage, 50ns fall</t>
+  </si>
+  <si>
+    <t>Small form factor: SOT-23 package for compact designs</t>
+  </si>
+  <si>
+    <t>Applications: Signal processing, switching, and amplification</t>
+  </si>
+  <si>
+    <t>Dual Cortex-M33 up to 150MHz</t>
+  </si>
+  <si>
+    <t>520KB of SRAM, 4MB flash memory</t>
+  </si>
+  <si>
+    <t>USB 1.1 with device and host support</t>
+  </si>
+  <si>
+    <t>Low-power sleep and dormant modes</t>
+  </si>
+  <si>
+    <t>Drag-and-drop programming using mass storage over USB</t>
+  </si>
+  <si>
+    <t>26× GPIO pins, 3 ADC</t>
+  </si>
+  <si>
+    <t>2× SPI, 2× I2C, 2× UART</t>
+  </si>
+  <si>
+    <t>3× 12-bit 500ksps Analogue to Digital Converter (ADC)</t>
+  </si>
+  <si>
+    <t>24× controllable PWM channels</t>
+  </si>
+  <si>
+    <t>2× Timer with 4 alarms</t>
+  </si>
+  <si>
+    <t>1× AON Timer</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>Gain Bandwidth Product: 10 MHz typical</t>
+  </si>
+  <si>
+    <t>Quiescent Current: 1.0 mA typical</t>
+  </si>
+  <si>
+    <t>Supply Voltage: 2.4V to 6.0V</t>
+  </si>
+  <si>
+    <t>Rail-to-Rail Input/Output: Maximized signal swing capability</t>
+  </si>
+  <si>
+    <t>Input Offset Voltage: ±3.0 mV typical</t>
+  </si>
+  <si>
+    <t>Common-Mode Input Range: VSS - 0.3V to VDD + 0.3V</t>
+  </si>
+  <si>
+    <t>Input Bias Current: ±1.0 pA typical</t>
+  </si>
+  <si>
+    <t>Output Voltage Swing: VSS + 15mV to VDD - 15mV</t>
+  </si>
+  <si>
+    <t>Slew Rate: 7 V/µs for fast response</t>
+  </si>
+  <si>
+    <t>Noise Performance: 8.7 nV/√Hz at 10 kHz</t>
+  </si>
+  <si>
+    <t>Operating Temperature: -40°C to +125°C (-40°C to +150°C for H-Temp version)</t>
+  </si>
+  <si>
+    <t>Applications: Automotive, portable devices, analog filters, photodiode amplifiers, battery-powered systems</t>
+  </si>
+  <si>
+    <t>SS14 Schottkey Diods</t>
+  </si>
+  <si>
+    <t>Forward Voltage (VF):</t>
+  </si>
+  <si>
+    <t>Red: 1.8V (Min), 2.1V (Typ), 2.6V (Max) at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Green/Blue: 2.9V (Min), 3.1V (Typ), 3.6V (Max) at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Dominant Wavelength (λD):</t>
+  </si>
+  <si>
+    <t>Red: 620–630 nm</t>
+  </si>
+  <si>
+    <t>Green: 520–530 nm</t>
+  </si>
+  <si>
+    <t>Blue: 465–475 nm</t>
+  </si>
+  <si>
+    <t>Luminous Intensity (Iv):</t>
+  </si>
+  <si>
+    <t>Red: 500–750 mcd at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Green: 1120–1560 mcd at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Blue: 330–500 mcd at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Resistors 1600 pcs, each value 20 pcs</t>
+  </si>
+  <si>
+    <t>Capacitors 560 pcs, each value 10 pcs</t>
+  </si>
+  <si>
+    <t>Diodes 260 pcs</t>
+  </si>
+  <si>
+    <t>n4001 1n4002 1n4004 1n4007 RL-207 1n5408 FR107 UF4007 SF14 SF18 1n5819 SR1100 SR240 SR2100 1n5822 SR3100 SR540 1n4148 BAV99 BAV70 BAT54C BAT54S</t>
+  </si>
+  <si>
+    <t>Zener Diodes 160pcs</t>
+  </si>
+  <si>
+    <t>2.7V 3.3V 3.6V 3.9V 4.7V 5.1V 5.6V 6.8V 7.5V 8.2V 9.1V 10V 12V 18V 22V 30V</t>
+  </si>
+  <si>
+    <t>Transistors 180 pcs</t>
+  </si>
+  <si>
+    <t>S9012 S9013 S9014 S9015 S9018 A1015 C1815 A42 A92 2N222 S8050 S8550 5551 5401 A733 C945 2n3904 2n3906</t>
+  </si>
+  <si>
+    <t>LEDs 75 pcs</t>
+  </si>
+  <si>
+    <t>Trim '3362' Potentiometers 13 pcs</t>
+  </si>
+  <si>
+    <t>100Ω 200Ω 500Ω 1K 2K 5K 10K 50K 20K 100K 200K 500K 1M</t>
+  </si>
+  <si>
+    <t>OpAmps 9 pcs</t>
+  </si>
+  <si>
+    <t>LM741, LM358, NE5532 (1pcs), LM324, LM386</t>
+  </si>
+  <si>
+    <t>IC Semiconductors 16 pcs</t>
+  </si>
+  <si>
+    <t>NE555 C4017 DB107S ULN2003 EL817C EL357 78M05 CJ78L05</t>
+  </si>
+  <si>
+    <t>PCB Adapters</t>
+  </si>
+  <si>
+    <t>SOP8&gt;DIP8, SOT223,SOT-89&gt;TO92, SOT23&gt;TO92</t>
+  </si>
+  <si>
+    <t>incl. Headers</t>
+  </si>
+  <si>
+    <t>1 pcs Soldering Tip</t>
+  </si>
+  <si>
+    <t>1 pcs 0.4mm Solder</t>
+  </si>
+  <si>
+    <t>1 pcs Tweezers</t>
+  </si>
+  <si>
+    <t>1 pcs Training PCB</t>
+  </si>
+  <si>
+    <t>Peak Repetitive Reverse Voltage (VRRM): 40V (SS14)</t>
+  </si>
+  <si>
+    <t>Maximum Average Forward Current (IF(AV)): 1.0A typical (at TA = 75°C, 0.375-inch lead length)</t>
+  </si>
+  <si>
+    <t>Non-Repetitive Peak Forward Surge Current (IFSM): 40A for 8.3ms single half-sine wave</t>
+  </si>
+  <si>
+    <t>Forward Voltage (VF): 850mV at IF = 1.0A</t>
+  </si>
+  <si>
+    <t>Reverse Current (IR): 0.2mA at TA = 25°C, 10mA at TA = 100°C</t>
+  </si>
+  <si>
+    <t>Power Dissipation (PD): 1.1W typical</t>
+  </si>
+  <si>
+    <t>Thermal Resistance, Junction-to-Ambient (RθJA): 88°C/W typical (mounted on FE-4 PCB 0.013mm)</t>
+  </si>
+  <si>
+    <t>Operating Junction Temperature (TJ): -65°C to +125°C</t>
+  </si>
+  <si>
+    <t>Storage Temperature Range (TSTG): -65°C to +150°C</t>
+  </si>
+  <si>
+    <t>Applications: Power supplies, circuit protection, polarity correction, freewheeling diodes, converters</t>
+  </si>
+  <si>
+    <t>DC Forward Current (IF): 50 mA (Red), 30 mA (Green/Blue)</t>
+  </si>
+  <si>
+    <t>Pulse Forward Current (IFP): 120 mA (Red), 100 mA (Green/Blue) (Pulse width: Max 10ms, Duty ratio: Max 1/10)</t>
+  </si>
+  <si>
+    <t>Reverse Voltage (VR): 5V</t>
+  </si>
+  <si>
+    <t>Power Dissipation (PD): 130 mW (Red), 108 mW (Green/Blue)</t>
+  </si>
+  <si>
+    <t>Reverse Current (IR): ≤10 µA at VR = 5V</t>
+  </si>
+  <si>
+    <t>Viewing Angle (2θ1/2): 120° at IF = 20mA</t>
+  </si>
+  <si>
+    <t>Operating Temperature (Topr): -30°C to +85°C</t>
+  </si>
+  <si>
+    <t>Storage Temperature (Tstg): -40°C to +100°C</t>
+  </si>
+  <si>
+    <t>Lead Soldering Temperature (Tsol): 260°C for 5 seconds</t>
+  </si>
+  <si>
+    <t>Applications: Toys, games, audio devices, small area illumination, backlighting, general lighting</t>
+  </si>
+  <si>
+    <t>1206: Ω: 0 1 3.3 10 22 47 68 100 220 330 470 680 K: 1 2.2 3.3 4.7 6.8 10 22 33 47 68 100 220 330 470 680 M: 1M 4.7 10</t>
+  </si>
+  <si>
+    <t>0805: Ω: 10 22 47 100 220 470 750 K: 1 2.2 4.7 6.8 10 22 47 75 100 220 470 750 M: 1M</t>
+  </si>
+  <si>
+    <t>0603: Ω: 0 1 10 22 33 47 75 100 220 330 510 750 K: 1 2 2.2 3 3.3 5.1 7.5 10 33 47 51 75 100 220 330 510 750 M: 1M</t>
+  </si>
+  <si>
+    <t>0805: 1p 2.2p 3.3p 4.7p 6.8p 10p 22p 33p 47p 68p 100p 220p 330p 470p 680p 1n 2.2n 3.3n 4.7n 6.8n 10n 22n 33n 47n 68n 100n 220n 330n 470n 680n 1uF 10uF</t>
+  </si>
+  <si>
+    <t>1206: 100p 1n 10n 0.1u 0.22u 0.47u 0.68u 1u 2.2uF 4.7uF 10uF 22uF</t>
+  </si>
+  <si>
+    <t>0603: 100p 1n 10n 0.1u 0.22u 0.47u 0.68u 1u 2.2uF 4.7uF 10uF 22uF</t>
+  </si>
+  <si>
+    <t>1206 0805 0603 each color 5 pcs: red green blue yellow white</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +369,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,30 +427,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -483,101 +788,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28589AB2-C83C-4EE1-B9C0-44ACA9F244B4}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="33.265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.06640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="112.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+      <c r="C84" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+      <c r="C92" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="6"/>
+      <c r="C94" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="6"/>
+      <c r="C95" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:D9"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{089A42FD-8798-4842-B148-B1A212D80247}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{D527A8E8-0B49-47B8-A74C-D767962EC92C}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{089A42FD-8798-4842-B148-B1A212D80247}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
+    <hyperlink ref="B47" r:id="rId3" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{1FC4C4B1-99A3-4E7A-BE96-BF3CF50D0F65}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{BEA4F6F8-D7CC-425F-836C-C1010B65A026}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{30E25DEF-1390-4932-9B3A-A4344B5BFF26}"/>
+    <hyperlink ref="B69" r:id="rId7" xr:uid="{51D466B4-C97E-4044-9611-D938474919BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/parts.xlsx
+++ b/parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\source\Diploma_git\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC806E7-65D2-4465-AEFC-28BAC215A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20894205-8356-4382-BBA0-4192A59D7ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{99BC40B1-1046-4B75-B04D-28D3C539FC4D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>Компоненти</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Raspberry Pi Pico</t>
   </si>
   <si>
-    <t>SMD Resistors/Capacitors 1206</t>
-  </si>
-  <si>
     <t>2n3904 Transistor</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Operating Temperature: -40°C to +125°C (-40°C to +150°C for H-Temp version)</t>
   </si>
   <si>
-    <t>Applications: Automotive, portable devices, analog filters, photodiode amplifiers, battery-powered systems</t>
-  </si>
-  <si>
     <t>SS14 Schottkey Diods</t>
   </si>
   <si>
@@ -201,78 +195,27 @@
     <t>Blue: 330–500 mcd at IF = 20mA</t>
   </si>
   <si>
-    <t>Resistors 1600 pcs, each value 20 pcs</t>
-  </si>
-  <si>
-    <t>Capacitors 560 pcs, each value 10 pcs</t>
-  </si>
-  <si>
     <t>Diodes 260 pcs</t>
   </si>
   <si>
-    <t>n4001 1n4002 1n4004 1n4007 RL-207 1n5408 FR107 UF4007 SF14 SF18 1n5819 SR1100 SR240 SR2100 1n5822 SR3100 SR540 1n4148 BAV99 BAV70 BAT54C BAT54S</t>
-  </si>
-  <si>
     <t>Zener Diodes 160pcs</t>
   </si>
   <si>
-    <t>2.7V 3.3V 3.6V 3.9V 4.7V 5.1V 5.6V 6.8V 7.5V 8.2V 9.1V 10V 12V 18V 22V 30V</t>
-  </si>
-  <si>
     <t>Transistors 180 pcs</t>
   </si>
   <si>
-    <t>S9012 S9013 S9014 S9015 S9018 A1015 C1815 A42 A92 2N222 S8050 S8550 5551 5401 A733 C945 2n3904 2n3906</t>
-  </si>
-  <si>
     <t>LEDs 75 pcs</t>
   </si>
   <si>
     <t>Trim '3362' Potentiometers 13 pcs</t>
   </si>
   <si>
-    <t>100Ω 200Ω 500Ω 1K 2K 5K 10K 50K 20K 100K 200K 500K 1M</t>
-  </si>
-  <si>
     <t>OpAmps 9 pcs</t>
   </si>
   <si>
-    <t>LM741, LM358, NE5532 (1pcs), LM324, LM386</t>
-  </si>
-  <si>
-    <t>IC Semiconductors 16 pcs</t>
-  </si>
-  <si>
-    <t>NE555 C4017 DB107S ULN2003 EL817C EL357 78M05 CJ78L05</t>
-  </si>
-  <si>
-    <t>PCB Adapters</t>
-  </si>
-  <si>
-    <t>SOP8&gt;DIP8, SOT223,SOT-89&gt;TO92, SOT23&gt;TO92</t>
-  </si>
-  <si>
-    <t>incl. Headers</t>
-  </si>
-  <si>
-    <t>1 pcs Soldering Tip</t>
-  </si>
-  <si>
-    <t>1 pcs 0.4mm Solder</t>
-  </si>
-  <si>
-    <t>1 pcs Tweezers</t>
-  </si>
-  <si>
-    <t>1 pcs Training PCB</t>
-  </si>
-  <si>
     <t>Peak Repetitive Reverse Voltage (VRRM): 40V (SS14)</t>
   </si>
   <si>
-    <t>Maximum Average Forward Current (IF(AV)): 1.0A typical (at TA = 75°C, 0.375-inch lead length)</t>
-  </si>
-  <si>
     <t>Non-Repetitive Peak Forward Surge Current (IFSM): 40A for 8.3ms single half-sine wave</t>
   </si>
   <si>
@@ -285,24 +228,15 @@
     <t>Power Dissipation (PD): 1.1W typical</t>
   </si>
   <si>
-    <t>Thermal Resistance, Junction-to-Ambient (RθJA): 88°C/W typical (mounted on FE-4 PCB 0.013mm)</t>
-  </si>
-  <si>
     <t>Operating Junction Temperature (TJ): -65°C to +125°C</t>
   </si>
   <si>
     <t>Storage Temperature Range (TSTG): -65°C to +150°C</t>
   </si>
   <si>
-    <t>Applications: Power supplies, circuit protection, polarity correction, freewheeling diodes, converters</t>
-  </si>
-  <si>
     <t>DC Forward Current (IF): 50 mA (Red), 30 mA (Green/Blue)</t>
   </si>
   <si>
-    <t>Pulse Forward Current (IFP): 120 mA (Red), 100 mA (Green/Blue) (Pulse width: Max 10ms, Duty ratio: Max 1/10)</t>
-  </si>
-  <si>
     <t>Reverse Voltage (VR): 5V</t>
   </si>
   <si>
@@ -324,35 +258,140 @@
     <t>Lead Soldering Temperature (Tsol): 260°C for 5 seconds</t>
   </si>
   <si>
-    <t>Applications: Toys, games, audio devices, small area illumination, backlighting, general lighting</t>
-  </si>
-  <si>
-    <t>1206: Ω: 0 1 3.3 10 22 47 68 100 220 330 470 680 K: 1 2.2 3.3 4.7 6.8 10 22 33 47 68 100 220 330 470 680 M: 1M 4.7 10</t>
-  </si>
-  <si>
-    <t>0805: Ω: 10 22 47 100 220 470 750 K: 1 2.2 4.7 6.8 10 22 47 75 100 220 470 750 M: 1M</t>
-  </si>
-  <si>
-    <t>0603: Ω: 0 1 10 22 33 47 75 100 220 330 510 750 K: 1 2 2.2 3 3.3 5.1 7.5 10 33 47 51 75 100 220 330 510 750 M: 1M</t>
-  </si>
-  <si>
-    <t>0805: 1p 2.2p 3.3p 4.7p 6.8p 10p 22p 33p 47p 68p 100p 220p 330p 470p 680p 1n 2.2n 3.3n 4.7n 6.8n 10n 22n 33n 47n 68n 100n 220n 330n 470n 680n 1uF 10uF</t>
-  </si>
-  <si>
-    <t>1206: 100p 1n 10n 0.1u 0.22u 0.47u 0.68u 1u 2.2uF 4.7uF 10uF 22uF</t>
-  </si>
-  <si>
-    <t>0603: 100p 1n 10n 0.1u 0.22u 0.47u 0.68u 1u 2.2uF 4.7uF 10uF 22uF</t>
-  </si>
-  <si>
-    <t>1206 0805 0603 each color 5 pcs: red green blue yellow white</t>
+    <t>OpAmp1</t>
+  </si>
+  <si>
+    <t>Pico1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>2n3904</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>SS14 Schottkey diod</t>
+  </si>
+  <si>
+    <t>NPN Transistor SOT23</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>MP008253 RGB LED</t>
+  </si>
+  <si>
+    <t>MCP6291-E/MS MSOP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 1MΩ 1206 </t>
+  </si>
+  <si>
+    <t>Capacitor .1uF 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor .1uF 1206 </t>
+  </si>
+  <si>
+    <t>Resistor 33kΩ 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 510Ω 1206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 1kΩ 1206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 3kΩ 1206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 100kΩ 1206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 220Ω 1206 </t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Capacitor 1uF 1206</t>
+  </si>
+  <si>
+    <t>Resistors 1600 pcs, each value 20 pcs;1206, 0805, 0603</t>
+  </si>
+  <si>
+    <t>Capacitors 560 pcs, each value 10 pcs;1206, 0805, 0603</t>
+  </si>
+  <si>
+    <t>Applications: Toys, games, audio devices, general lighting</t>
+  </si>
+  <si>
+    <t>Pulse Forward Current (IFP): 120 mA (Red), 100 mA (Green/Blue)</t>
+  </si>
+  <si>
+    <t>Applications: Power supplies, freewheeling diodes, converters</t>
+  </si>
+  <si>
+    <t>Thermal Resistance, Junction-to-Ambient (RθJA): 88°C/W typical</t>
+  </si>
+  <si>
+    <t>Applications: Automotive, portable devices, analog filters</t>
+  </si>
+  <si>
+    <t>SMD kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +449,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -473,6 +533,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,17 +853,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28589AB2-C83C-4EE1-B9C0-44ACA9F244B4}">
-  <dimension ref="B1:E97"/>
+  <dimension ref="B1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="112.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.21875" style="2" customWidth="1"/>
@@ -813,51 +878,51 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -869,73 +934,73 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -947,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
@@ -965,7 +1030,7 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -977,55 +1042,55 @@
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -1034,226 +1099,226 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="6"/>
-      <c r="C67" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B69" s="6"/>
       <c r="C69" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
-      <c r="C70" s="8" t="s">
-        <v>97</v>
+      <c r="C70" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
-      <c r="C71" s="8" t="s">
-        <v>98</v>
+      <c r="C71" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
-      <c r="C72" s="8" t="s">
-        <v>99</v>
+      <c r="C72" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
@@ -1264,157 +1329,250 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
-      <c r="C74" s="8" t="s">
-        <v>100</v>
+      <c r="C74" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
-      <c r="C75" s="8" t="s">
-        <v>101</v>
+      <c r="C75" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
-      <c r="C76" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
-      <c r="C77" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
-      <c r="C78" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
-      <c r="C79" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
-      <c r="C80" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
-      <c r="C81" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
-      <c r="C82" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
-      <c r="C83" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="88" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C89" s="9"/>
+      <c r="E89" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E90" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C91" s="9"/>
+      <c r="E91" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C92" s="9"/>
+      <c r="E92" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C93" s="9"/>
+      <c r="E93" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E94" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E95" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E96" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E97" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E98" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E99" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E100" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E101" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E102" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="6"/>
-      <c r="C86" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="6"/>
-      <c r="C88" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="6"/>
-      <c r="C90" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="6"/>
-      <c r="C94" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="6"/>
-      <c r="C95" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="6"/>
-      <c r="C96" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="6"/>
-      <c r="C97" s="8" t="s">
-        <v>76</v>
+    <row r="103" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E103" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E104" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E105" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E106" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E107" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E108" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E109" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E110" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" xr:uid="{089A42FD-8798-4842-B148-B1A212D80247}"/>
     <hyperlink ref="D25" r:id="rId2" xr:uid="{C7AA132C-582C-4E49-949D-AE4F4B3958FB}"/>
-    <hyperlink ref="B47" r:id="rId3" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
+    <hyperlink ref="B46" r:id="rId3" xr:uid="{688FC4A8-5193-4B02-A775-42968BE897D2}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{1FC4C4B1-99A3-4E7A-BE96-BF3CF50D0F65}"/>
     <hyperlink ref="B23" r:id="rId5" xr:uid="{BEA4F6F8-D7CC-425F-836C-C1010B65A026}"/>
     <hyperlink ref="B36" r:id="rId6" xr:uid="{30E25DEF-1390-4932-9B3A-A4344B5BFF26}"/>
-    <hyperlink ref="B69" r:id="rId7" xr:uid="{51D466B4-C97E-4044-9611-D938474919BB}"/>
+    <hyperlink ref="B68" r:id="rId7" display="SMD Resistors/Capacitors 1206" xr:uid="{51D466B4-C97E-4044-9611-D938474919BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
